--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Rspo1-Lgr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Rspo1-Lgr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,19 +79,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Rspo1</t>
+  </si>
+  <si>
+    <t>Lgr4</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Rspo1</t>
-  </si>
-  <si>
-    <t>Lgr4</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -543,10 +543,10 @@
         <v>0.351263</v>
       </c>
       <c r="I2">
-        <v>0.4255051361566043</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.4255051361566043</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.369012666666666</v>
+        <v>1.484826</v>
       </c>
       <c r="N2">
-        <v>4.107037999999999</v>
+        <v>4.454478</v>
       </c>
       <c r="O2">
-        <v>0.06074872832285553</v>
+        <v>0.06049021884829667</v>
       </c>
       <c r="P2">
-        <v>0.06074872832285554</v>
+        <v>0.06049021884829667</v>
       </c>
       <c r="Q2">
-        <v>0.1602944987771111</v>
+        <v>0.173854811746</v>
       </c>
       <c r="R2">
-        <v>1.442650488994</v>
+        <v>1.564693305714</v>
       </c>
       <c r="S2">
-        <v>0.02584889591635721</v>
+        <v>0.06049021884829667</v>
       </c>
       <c r="T2">
-        <v>0.02584889591635721</v>
+        <v>0.06049021884829667</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -605,10 +605,10 @@
         <v>0.351263</v>
       </c>
       <c r="I3">
-        <v>0.4255051361566043</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.4255051361566043</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,10 +623,10 @@
         <v>43.148598</v>
       </c>
       <c r="O3">
-        <v>0.6382269794957115</v>
+        <v>0.5859425360316464</v>
       </c>
       <c r="P3">
-        <v>0.6382269794957116</v>
+        <v>0.5859425360316464</v>
       </c>
       <c r="Q3">
         <v>1.684056219919333</v>
@@ -635,10 +635,10 @@
         <v>15.156505979274</v>
       </c>
       <c r="S3">
-        <v>0.271568857809141</v>
+        <v>0.5859425360316464</v>
       </c>
       <c r="T3">
-        <v>0.2715688578091411</v>
+        <v>0.5859425360316464</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -667,10 +667,10 @@
         <v>0.351263</v>
       </c>
       <c r="I4">
-        <v>0.4255051361566043</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.4255051361566043</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.725161</v>
+        <v>8.653369666666666</v>
       </c>
       <c r="N4">
-        <v>20.175483</v>
+        <v>25.960109</v>
       </c>
       <c r="O4">
-        <v>0.2984230814395656</v>
+        <v>0.3525289999716321</v>
       </c>
       <c r="P4">
-        <v>0.2984230814395656</v>
+        <v>0.3525289999716321</v>
       </c>
       <c r="Q4">
-        <v>0.7874334094476666</v>
+        <v>1.013202863074111</v>
       </c>
       <c r="R4">
-        <v>7.086900685029</v>
+        <v>9.118825767666999</v>
       </c>
       <c r="S4">
-        <v>0.1269805539002158</v>
+        <v>0.3525289999716321</v>
       </c>
       <c r="T4">
-        <v>0.1269805539002158</v>
+        <v>0.3525289999716321</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +708,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -729,10 +729,10 @@
         <v>0.351263</v>
       </c>
       <c r="I5">
-        <v>0.4255051361566043</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.4255051361566043</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,276 +741,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.05862</v>
+        <v>0.02548533333333333</v>
       </c>
       <c r="N5">
-        <v>0.17586</v>
+        <v>0.076456</v>
       </c>
       <c r="O5">
-        <v>0.002601210741867345</v>
+        <v>0.001038245148424882</v>
       </c>
       <c r="P5">
-        <v>0.002601210741867345</v>
+        <v>0.001038245148424882</v>
       </c>
       <c r="Q5">
-        <v>0.006863679019999999</v>
+        <v>0.002984018214222222</v>
       </c>
       <c r="R5">
-        <v>0.06177311117999999</v>
+        <v>0.026856163928</v>
       </c>
       <c r="S5">
-        <v>0.001106828530890286</v>
+        <v>0.001038245148424882</v>
       </c>
       <c r="T5">
-        <v>0.001106828530890286</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.1580856666666667</v>
-      </c>
-      <c r="H6">
-        <v>0.474257</v>
-      </c>
-      <c r="I6">
-        <v>0.5744948638433957</v>
-      </c>
-      <c r="J6">
-        <v>0.5744948638433957</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>1.369012666666666</v>
-      </c>
-      <c r="N6">
-        <v>4.107037999999999</v>
-      </c>
-      <c r="O6">
-        <v>0.06074872832285553</v>
-      </c>
-      <c r="P6">
-        <v>0.06074872832285554</v>
-      </c>
-      <c r="Q6">
-        <v>0.2164212800851111</v>
-      </c>
-      <c r="R6">
-        <v>1.947791520766</v>
-      </c>
-      <c r="S6">
-        <v>0.03489983240649832</v>
-      </c>
-      <c r="T6">
-        <v>0.03489983240649833</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.1580856666666667</v>
-      </c>
-      <c r="H7">
-        <v>0.474257</v>
-      </c>
-      <c r="I7">
-        <v>0.5744948638433957</v>
-      </c>
-      <c r="J7">
-        <v>0.5744948638433957</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>14.382866</v>
-      </c>
-      <c r="N7">
-        <v>43.148598</v>
-      </c>
-      <c r="O7">
-        <v>0.6382269794957115</v>
-      </c>
-      <c r="P7">
-        <v>0.6382269794957116</v>
-      </c>
-      <c r="Q7">
-        <v>2.273724960187333</v>
-      </c>
-      <c r="R7">
-        <v>20.463524641686</v>
-      </c>
-      <c r="S7">
-        <v>0.3666581216865705</v>
-      </c>
-      <c r="T7">
-        <v>0.3666581216865705</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.1580856666666667</v>
-      </c>
-      <c r="H8">
-        <v>0.474257</v>
-      </c>
-      <c r="I8">
-        <v>0.5744948638433957</v>
-      </c>
-      <c r="J8">
-        <v>0.5744948638433957</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>6.725161</v>
-      </c>
-      <c r="N8">
-        <v>20.175483</v>
-      </c>
-      <c r="O8">
-        <v>0.2984230814395656</v>
-      </c>
-      <c r="P8">
-        <v>0.2984230814395656</v>
-      </c>
-      <c r="Q8">
-        <v>1.063151560125666</v>
-      </c>
-      <c r="R8">
-        <v>9.568364041131</v>
-      </c>
-      <c r="S8">
-        <v>0.1714425275393498</v>
-      </c>
-      <c r="T8">
-        <v>0.1714425275393498</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.1580856666666667</v>
-      </c>
-      <c r="H9">
-        <v>0.474257</v>
-      </c>
-      <c r="I9">
-        <v>0.5744948638433957</v>
-      </c>
-      <c r="J9">
-        <v>0.5744948638433957</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.05862</v>
-      </c>
-      <c r="N9">
-        <v>0.17586</v>
-      </c>
-      <c r="O9">
-        <v>0.002601210741867345</v>
-      </c>
-      <c r="P9">
-        <v>0.002601210741867345</v>
-      </c>
-      <c r="Q9">
-        <v>0.009266981779999999</v>
-      </c>
-      <c r="R9">
-        <v>0.08340283602</v>
-      </c>
-      <c r="S9">
-        <v>0.001494382210977058</v>
-      </c>
-      <c r="T9">
-        <v>0.001494382210977059</v>
+        <v>0.001038245148424882</v>
       </c>
     </row>
   </sheetData>
